--- a/biology/Zoologie/Crotaphopeltis_degeni/Crotaphopeltis_degeni.xlsx
+++ b/biology/Zoologie/Crotaphopeltis_degeni/Crotaphopeltis_degeni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crotaphopeltis degeni est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crotaphopeltis degeni est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Cameroun, en Éthiopie, au Kenya, en Ouganda, dans l'est de la République centrafricaine, dans le sud du Soudan et en Tanzanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Cameroun, en Éthiopie, au Kenya, en Ouganda, dans l'est de la République centrafricaine, dans le sud du Soudan et en Tanzanie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crotaphopeltis degeni[1] a le dos uniformément brun foncé, gris ou presque noir. Sa face ventrale est pâle et présente généralement au niveau de la queue, à partir de l'anus, une raie médiane plus ou moins pigmentée. Dans sa description[2] Boulenger indique que les spécimens en sa possession mesuraient environ 45 cm dont 5 cm pour la queue. Il précise que cette espèce se distingue notamment de Crotaphopeltis hotamboeia par l'absence des marques noires de chaque côté de la tête.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crotaphopeltis degeni a le dos uniformément brun foncé, gris ou presque noir. Sa face ventrale est pâle et présente généralement au niveau de la queue, à partir de l'anus, une raie médiane plus ou moins pigmentée. Dans sa description Boulenger indique que les spécimens en sa possession mesuraient environ 45 cm dont 5 cm pour la queue. Il précise que cette espèce se distingue notamment de Crotaphopeltis hotamboeia par l'absence des marques noires de chaque côté de la tête.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Boulenger, 1906 : Additions to the herptetology of British East Africa. Proceedings of the Zoological Society of London, vol. 1906, n. 2, p. 570-573 (texte intégral).</t>
         </is>
